--- a/Execution Providers Tester/Nvidia - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/Nvidia - CUDA/report_CUDAExecutionProvider.xlsx
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-04 16:07:02</t>
+          <t>2025-06-05 09:16:34</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/Nvidia - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/Nvidia - CUDA/report_CUDAExecutionProvider.xlsx
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-05 09:16:34</t>
+          <t>2025-06-05 09:40:18</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/Nvidia - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/Nvidia - CUDA/report_CUDAExecutionProvider.xlsx
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-05 09:40:18</t>
+          <t>2025-06-05 09:43:55</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/Nvidia - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/Nvidia - CUDA/report_CUDAExecutionProvider.xlsx
@@ -37,25 +37,21 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0000AA44"/>
-        <bgColor rgb="0000AA44"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFAA00"/>
-        <bgColor rgb="00FFAA00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF7700"/>
-        <bgColor rgb="00FF7700"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00DEDEDE"/>
-        <bgColor rgb="00DEDEDE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004D7CFE"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,18 +64,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -185,7 +173,6 @@
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
       <pieChart>
@@ -257,6 +244,28 @@
             <idx val="5"/>
             <spPr>
               <a:solidFill>
+                <a:srgbClr val="4D7CFE"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="6"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="7"/>
+            <spPr>
+              <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
@@ -266,12 +275,12 @@
           </dPt>
           <cat>
             <numRef>
-              <f>'Data_PieChart'!$A$2:$A$7</f>
+              <f>'Data_PieChart'!$A$2:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Data_PieChart'!$B$2:$B$7</f>
+              <f>'Data_PieChart'!$B$2:$B$9</f>
             </numRef>
           </val>
         </ser>
@@ -606,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,10 +623,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="48" customWidth="1" min="1" max="1"/>
     <col width="23" customWidth="1" min="2" max="2"/>
     <col width="44" customWidth="1" min="3" max="3"/>
-    <col width="43" customWidth="1" min="4" max="4"/>
+    <col width="80" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -667,7 +676,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Div</t>
+          <t>AffineGrid</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -677,19 +686,19 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Sub</t>
+          <t>And</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -711,7 +720,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Mul</t>
+          <t>ArgMax</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -733,7 +742,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Pow</t>
+          <t>ArgMin</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -755,7 +764,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Mod</t>
+          <t>AveragePool</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -765,19 +774,19 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BitwiseAnd</t>
+          <t>BatchNormalization</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -787,19 +796,19 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>BitwiseOr</t>
+          <t>Bernoulli</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -809,19 +818,19 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>BitwiseXor</t>
+          <t>BitShift</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -834,7 +843,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -843,7 +852,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>And</t>
+          <t>BitwiseAnd</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -853,19 +862,19 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Or</t>
+          <t>BitwiseNot</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -875,19 +884,19 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Xor</t>
+          <t>BitwiseOr</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -897,19 +906,19 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ReduceSum</t>
+          <t>BitwiseXor</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -919,19 +928,19 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ReduceMean</t>
+          <t>BlackmanWindow</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -941,19 +950,19 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ReduceMax</t>
+          <t>Cast</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -966,7 +975,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -975,7 +984,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ReduceMin</t>
+          <t>CastLike</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -988,16 +997,16 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ReduceProd</t>
+          <t>CenterCropPad</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -1007,19 +1016,19 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ReduceL1</t>
+          <t>Clip</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -1041,7 +1050,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ReduceL2</t>
+          <t>Col2Im</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -1051,19 +1060,19 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ReduceLogSum</t>
+          <t>Compress</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -1085,7 +1094,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ReduceLogSumExp</t>
+          <t>Concat</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -1107,7 +1116,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ReduceSumSquare</t>
+          <t>ConcatFromSequence</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -1129,7 +1138,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Equal</t>
+          <t>Constant</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -1137,21 +1146,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
+      <c r="C24" s="1" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>UNKNOWN (no Node event)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Not</t>
+          <t>ConstantOfShape</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1161,19 +1166,19 @@
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Greater</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1183,19 +1188,19 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Less</t>
+          <t>ConvInteger</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1205,19 +1210,19 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>GreaterOrEqual</t>
+          <t>ConvTranspose</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1227,19 +1232,19 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>LessOrEqual</t>
+          <t>CumSum</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -1261,7 +1266,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Not</t>
+          <t>DFT</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1271,19 +1276,19 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IsNaN</t>
+          <t>DeformConv</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -1291,21 +1296,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C31" s="1" t="inlineStr"/>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DeformConv(19) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>IsInf</t>
+          <t>DepthToSpace</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1327,7 +1328,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>DequantizeLinear</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -1349,7 +1350,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>Det</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1359,19 +1360,19 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t>Div</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -1381,19 +1382,19 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Sum</t>
+          <t>Dropout</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -1403,19 +1404,19 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ArgMin</t>
+          <t>DynamicQuantizeLinear</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1425,19 +1426,19 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ArgMax</t>
+          <t>Einsum</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1459,7 +1460,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Reshape</t>
+          <t>Equal</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -1472,7 +1473,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -1503,7 +1504,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Flatten</t>
+          <t>EyeLike</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -1516,7 +1517,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -1525,7 +1526,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Squeeze</t>
+          <t>Flatten</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1538,7 +1539,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -1547,7 +1548,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Unsqueeze</t>
+          <t>GRU</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -1560,7 +1561,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -1569,7 +1570,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Transpose</t>
+          <t>Gather</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -1579,19 +1580,19 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Concat</t>
+          <t>GatherElements</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
@@ -1613,7 +1614,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Split</t>
+          <t>GatherND</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -1635,7 +1636,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Slice</t>
+          <t>Gelu</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
@@ -1657,7 +1658,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Pad</t>
+          <t>Gemm</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
@@ -1667,19 +1668,19 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Tile</t>
+          <t>GlobalAveragePool</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
@@ -1689,19 +1690,19 @@
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Gather</t>
+          <t>GlobalMaxPool</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
@@ -1711,19 +1712,19 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>GatherND</t>
+          <t>Greater</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
@@ -1745,7 +1746,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>GatherElements</t>
+          <t>GreaterOrEqual</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
@@ -1767,7 +1768,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>ScatterElements</t>
+          <t>GridSample</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
@@ -1777,19 +1778,19 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>ScatterND</t>
+          <t>GroupNormalization</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
@@ -1799,19 +1800,19 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Gemm</t>
+          <t>HammingWindow</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
@@ -1821,19 +1822,19 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>MatMul</t>
+          <t>HannWindow</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
@@ -1843,19 +1844,19 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>AveragePool</t>
+          <t>HardSigmoid</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
@@ -1868,7 +1869,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -1877,7 +1878,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>MaxPool</t>
+          <t>HardSwish</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
@@ -1887,19 +1888,19 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>GlobalMaxPool</t>
+          <t>Hardmax</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
@@ -1912,7 +1913,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
+      <c r="D59" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -1921,7 +1922,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>GlobalAveragePool</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
@@ -1934,7 +1935,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr">
+      <c r="D60" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -1943,7 +1944,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Dropout</t>
+          <t>If</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
@@ -1956,7 +1957,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
+      <c r="D61" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -1965,7 +1966,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>BatchNormalization</t>
+          <t>ImageDecoder</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
@@ -1973,14 +1974,10 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C62" s="1" t="inlineStr"/>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ImageDecoder(20) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2000,7 +1997,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
+      <c r="D63" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -2009,7 +2006,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>LayerNormalization</t>
+          <t>IsInf</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
@@ -2031,7 +2028,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>GroupNormalization</t>
+          <t>IsNaN</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
@@ -2041,19 +2038,19 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D65" s="4" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>AffineGrid</t>
+          <t>LRN</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
@@ -2063,19 +2060,19 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>GridSample</t>
+          <t>LSTM</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
@@ -2088,7 +2085,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D67" s="3" t="inlineStr">
+      <c r="D67" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -2097,7 +2094,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Resize</t>
+          <t>LayerNormalization</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
@@ -2107,19 +2104,19 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Bernoulli</t>
+          <t>Less</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
@@ -2129,19 +2126,19 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D69" s="4" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>BitShift</t>
+          <t>LessOrEqual</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
@@ -2151,19 +2148,19 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>BitwiseNot</t>
+          <t>Loop</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
@@ -2176,7 +2173,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D71" s="3" t="inlineStr">
+      <c r="D71" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -2185,7 +2182,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>BlackmanWindow</t>
+          <t>LpNormalization</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
@@ -2198,7 +2195,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D72" s="3" t="inlineStr">
+      <c r="D72" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -2207,7 +2204,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Cast</t>
+          <t>LpPool</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr">
@@ -2220,7 +2217,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D73" s="3" t="inlineStr">
+      <c r="D73" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -2229,7 +2226,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>CastLike</t>
+          <t>MatMul</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
@@ -2239,19 +2236,19 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D74" s="4" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>CenterCropPad</t>
+          <t>MatMulInteger</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
@@ -2261,19 +2258,19 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D75" s="4" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Clip</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
@@ -2295,7 +2292,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Col2Im</t>
+          <t>MaxPool</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
@@ -2308,7 +2305,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D77" s="3" t="inlineStr">
+      <c r="D77" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -2317,7 +2314,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Compress</t>
+          <t>MaxRoiPool</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr">
@@ -2327,19 +2324,19 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>ConcatFromSequence</t>
+          <t>MaxUnpool</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr">
@@ -2349,19 +2346,19 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr">
@@ -2369,17 +2366,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C80" s="1" t="inlineStr"/>
-      <c r="D80" s="5" t="inlineStr">
-        <is>
-          <t>UNKNOWN (no Node event)</t>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>ConstantOfShape</t>
+          <t>MeanVarianceNormalization</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr">
@@ -2392,7 +2393,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D81" s="3" t="inlineStr">
+      <c r="D81" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -2401,7 +2402,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>MelWeightMatrix</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr">
@@ -2414,7 +2415,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D82" s="3" t="inlineStr">
+      <c r="D82" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -2423,7 +2424,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>ConvTranspose</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr">
@@ -2433,19 +2434,19 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>ConvInteger</t>
+          <t>Mod</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr">
@@ -2455,19 +2456,19 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D84" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>CumSum</t>
+          <t>Mul</t>
         </is>
       </c>
       <c r="B85" s="1" t="inlineStr">
@@ -2489,7 +2490,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>DFT</t>
+          <t>Multinomial</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
@@ -2502,7 +2503,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D86" s="3" t="inlineStr">
+      <c r="D86" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -2511,7 +2512,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>DepthToSpace</t>
+          <t>NegativeLogLikelihoodLoss</t>
         </is>
       </c>
       <c r="B87" s="1" t="inlineStr">
@@ -2521,19 +2522,19 @@
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>DequantizeLinear</t>
+          <t>NonMaxSuppression</t>
         </is>
       </c>
       <c r="B88" s="1" t="inlineStr">
@@ -2555,7 +2556,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Det</t>
+          <t>NonZero</t>
         </is>
       </c>
       <c r="B89" s="1" t="inlineStr">
@@ -2565,19 +2566,19 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>DynamicQuantizeLinear</t>
+          <t>Not</t>
         </is>
       </c>
       <c r="B90" s="1" t="inlineStr">
@@ -2587,19 +2588,19 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D90" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Einsum</t>
+          <t>Not</t>
         </is>
       </c>
       <c r="B91" s="1" t="inlineStr">
@@ -2621,7 +2622,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>EyeLike</t>
+          <t>OneHot</t>
         </is>
       </c>
       <c r="B92" s="1" t="inlineStr">
@@ -2631,19 +2632,19 @@
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>Optional</t>
         </is>
       </c>
       <c r="B93" s="1" t="inlineStr">
@@ -2656,7 +2657,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D93" s="3" t="inlineStr">
+      <c r="D93" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -2665,7 +2666,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Gelu</t>
+          <t>OptionalGetElement</t>
         </is>
       </c>
       <c r="B94" s="1" t="inlineStr">
@@ -2675,19 +2676,19 @@
       </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>HammingWindow</t>
+          <t>OptionalHasElement</t>
         </is>
       </c>
       <c r="B95" s="1" t="inlineStr">
@@ -2700,7 +2701,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D95" s="3" t="inlineStr">
+      <c r="D95" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -2709,7 +2710,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>HannWindow</t>
+          <t>Or</t>
         </is>
       </c>
       <c r="B96" s="1" t="inlineStr">
@@ -2719,19 +2720,19 @@
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>HardSigmoid</t>
+          <t>PRelu</t>
         </is>
       </c>
       <c r="B97" s="1" t="inlineStr">
@@ -2741,19 +2742,19 @@
       </c>
       <c r="C97" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D97" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>HardSwish</t>
+          <t>Pad</t>
         </is>
       </c>
       <c r="B98" s="1" t="inlineStr">
@@ -2763,19 +2764,19 @@
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D98" s="4" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Hardmax</t>
+          <t>Pow</t>
         </is>
       </c>
       <c r="B99" s="1" t="inlineStr">
@@ -2785,19 +2786,19 @@
       </c>
       <c r="C99" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>QLinearConv</t>
         </is>
       </c>
       <c r="B100" s="1" t="inlineStr">
@@ -2810,7 +2811,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D100" s="3" t="inlineStr">
+      <c r="D100" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -2819,7 +2820,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>If</t>
+          <t>QLinearMatMul</t>
         </is>
       </c>
       <c r="B101" s="1" t="inlineStr">
@@ -2832,7 +2833,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D101" s="3" t="inlineStr">
+      <c r="D101" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -2841,7 +2842,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>LRN</t>
+          <t>QuantizeLinear</t>
         </is>
       </c>
       <c r="B102" s="1" t="inlineStr">
@@ -2863,7 +2864,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>LSTM</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B103" s="1" t="inlineStr">
@@ -2876,7 +2877,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D103" s="3" t="inlineStr">
+      <c r="D103" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -2885,7 +2886,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Loop</t>
+          <t>RandomNormal</t>
         </is>
       </c>
       <c r="B104" s="1" t="inlineStr">
@@ -2895,19 +2896,19 @@
       </c>
       <c r="C104" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>LpNormalization</t>
+          <t>RandomNormalLike</t>
         </is>
       </c>
       <c r="B105" s="1" t="inlineStr">
@@ -2917,19 +2918,19 @@
       </c>
       <c r="C105" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>LpPool</t>
+          <t>RandomUniform</t>
         </is>
       </c>
       <c r="B106" s="1" t="inlineStr">
@@ -2939,19 +2940,19 @@
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>MatMulInteger</t>
+          <t>RandomUniformLike</t>
         </is>
       </c>
       <c r="B107" s="1" t="inlineStr">
@@ -2961,19 +2962,19 @@
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>MaxRoiPool</t>
+          <t>Range</t>
         </is>
       </c>
       <c r="B108" s="1" t="inlineStr">
@@ -2983,19 +2984,19 @@
       </c>
       <c r="C108" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D108" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>MaxUnpool</t>
+          <t>ReduceL1</t>
         </is>
       </c>
       <c r="B109" s="1" t="inlineStr">
@@ -3005,19 +3006,19 @@
       </c>
       <c r="C109" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D109" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>MeanVarianceNormalization</t>
+          <t>ReduceL2</t>
         </is>
       </c>
       <c r="B110" s="1" t="inlineStr">
@@ -3027,19 +3028,19 @@
       </c>
       <c r="C110" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D110" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>MelWeightMatrix</t>
+          <t>ReduceLogSum</t>
         </is>
       </c>
       <c r="B111" s="1" t="inlineStr">
@@ -3049,19 +3050,19 @@
       </c>
       <c r="C111" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Multinomial</t>
+          <t>ReduceLogSumExp</t>
         </is>
       </c>
       <c r="B112" s="1" t="inlineStr">
@@ -3071,19 +3072,19 @@
       </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D112" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>NegativeLogLikelihoodLoss</t>
+          <t>ReduceMax</t>
         </is>
       </c>
       <c r="B113" s="1" t="inlineStr">
@@ -3093,19 +3094,19 @@
       </c>
       <c r="C113" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D113" s="4" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>NonMaxSuppression</t>
+          <t>ReduceMean</t>
         </is>
       </c>
       <c r="B114" s="1" t="inlineStr">
@@ -3127,7 +3128,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>NonZero</t>
+          <t>ReduceMin</t>
         </is>
       </c>
       <c r="B115" s="1" t="inlineStr">
@@ -3137,19 +3138,19 @@
       </c>
       <c r="C115" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>OneHot</t>
+          <t>ReduceProd</t>
         </is>
       </c>
       <c r="B116" s="1" t="inlineStr">
@@ -3171,7 +3172,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Optional</t>
+          <t>ReduceSum</t>
         </is>
       </c>
       <c r="B117" s="1" t="inlineStr">
@@ -3181,19 +3182,19 @@
       </c>
       <c r="C117" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D117" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>OptionalGetElement</t>
+          <t>ReduceSumSquare</t>
         </is>
       </c>
       <c r="B118" s="1" t="inlineStr">
@@ -3203,19 +3204,19 @@
       </c>
       <c r="C118" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D118" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>OptionalHasElement</t>
+          <t>RegexFullMatch</t>
         </is>
       </c>
       <c r="B119" s="1" t="inlineStr">
@@ -3228,7 +3229,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D119" s="3" t="inlineStr">
+      <c r="D119" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -3237,7 +3238,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>PRelu</t>
+          <t>Reshape</t>
         </is>
       </c>
       <c r="B120" s="1" t="inlineStr">
@@ -3247,19 +3248,19 @@
       </c>
       <c r="C120" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>QLinearConv</t>
+          <t>Resize</t>
         </is>
       </c>
       <c r="B121" s="1" t="inlineStr">
@@ -3272,7 +3273,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D121" s="3" t="inlineStr">
+      <c r="D121" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -3281,7 +3282,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>QLinearMatMul</t>
+          <t>ReverseSequence</t>
         </is>
       </c>
       <c r="B122" s="1" t="inlineStr">
@@ -3291,19 +3292,19 @@
       </c>
       <c r="C122" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D122" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>QuantizeLinear</t>
+          <t>RoiAlign</t>
         </is>
       </c>
       <c r="B123" s="1" t="inlineStr">
@@ -3313,19 +3314,19 @@
       </c>
       <c r="C123" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>STFT</t>
         </is>
       </c>
       <c r="B124" s="1" t="inlineStr">
@@ -3338,7 +3339,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D124" s="3" t="inlineStr">
+      <c r="D124" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -3347,7 +3348,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>RandomNormal</t>
+          <t>Scan</t>
         </is>
       </c>
       <c r="B125" s="1" t="inlineStr">
@@ -3357,19 +3358,19 @@
       </c>
       <c r="C125" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>RandomNormalLike</t>
+          <t>ScatterElements</t>
         </is>
       </c>
       <c r="B126" s="1" t="inlineStr">
@@ -3391,7 +3392,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>RandomUniform</t>
+          <t>ScatterND</t>
         </is>
       </c>
       <c r="B127" s="1" t="inlineStr">
@@ -3413,7 +3414,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>RandomUniformLike</t>
+          <t>SequenceAt</t>
         </is>
       </c>
       <c r="B128" s="1" t="inlineStr">
@@ -3435,7 +3436,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Range</t>
+          <t>SequenceConstruct</t>
         </is>
       </c>
       <c r="B129" s="1" t="inlineStr">
@@ -3457,7 +3458,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>RegexFullMatch</t>
+          <t>SequenceEmpty</t>
         </is>
       </c>
       <c r="B130" s="1" t="inlineStr">
@@ -3467,19 +3468,19 @@
       </c>
       <c r="C130" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D130" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>ReverseSequence</t>
+          <t>SequenceErase</t>
         </is>
       </c>
       <c r="B131" s="1" t="inlineStr">
@@ -3501,7 +3502,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>RoiAlign</t>
+          <t>SequenceInsert</t>
         </is>
       </c>
       <c r="B132" s="1" t="inlineStr">
@@ -3511,19 +3512,19 @@
       </c>
       <c r="C132" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D132" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>STFT</t>
+          <t>SequenceLength</t>
         </is>
       </c>
       <c r="B133" s="1" t="inlineStr">
@@ -3533,19 +3534,19 @@
       </c>
       <c r="C133" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D133" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Scan</t>
+          <t>SequenceMap</t>
         </is>
       </c>
       <c r="B134" s="1" t="inlineStr">
@@ -3555,19 +3556,19 @@
       </c>
       <c r="C134" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D134" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>SequenceAt</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B135" s="1" t="inlineStr">
@@ -3575,21 +3576,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C135" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C135" s="1" t="inlineStr"/>
+      <c r="D135" s="3" t="inlineStr">
+        <is>
+          <t>UNKNOWN (no Node event)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>SequenceConstruct</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="B136" s="1" t="inlineStr">
@@ -3599,19 +3596,19 @@
       </c>
       <c r="C136" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>SequenceEmpty</t>
+          <t>Slice</t>
         </is>
       </c>
       <c r="B137" s="1" t="inlineStr">
@@ -3633,7 +3630,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>SequenceErase</t>
+          <t>SoftmaxCrossEntropyLoss</t>
         </is>
       </c>
       <c r="B138" s="1" t="inlineStr">
@@ -3643,19 +3640,19 @@
       </c>
       <c r="C138" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>SequenceInsert</t>
+          <t>SpaceToDepth</t>
         </is>
       </c>
       <c r="B139" s="1" t="inlineStr">
@@ -3677,7 +3674,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>SequenceLength</t>
+          <t>Split</t>
         </is>
       </c>
       <c r="B140" s="1" t="inlineStr">
@@ -3699,7 +3696,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>SequenceMap</t>
+          <t>SplitToSequence</t>
         </is>
       </c>
       <c r="B141" s="1" t="inlineStr">
@@ -3709,19 +3706,19 @@
       </c>
       <c r="C141" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D141" s="4" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Squeeze</t>
         </is>
       </c>
       <c r="B142" s="1" t="inlineStr">
@@ -3729,17 +3726,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C142" s="1" t="inlineStr"/>
-      <c r="D142" s="5" t="inlineStr">
-        <is>
-          <t>UNKNOWN (no Node event)</t>
+      <c r="C142" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>StringConcat</t>
         </is>
       </c>
       <c r="B143" s="1" t="inlineStr">
@@ -3752,7 +3753,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D143" s="3" t="inlineStr">
+      <c r="D143" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -3761,7 +3762,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>SoftmaxCrossEntropyLoss</t>
+          <t>StringNormalizer</t>
         </is>
       </c>
       <c r="B144" s="1" t="inlineStr">
@@ -3771,19 +3772,19 @@
       </c>
       <c r="C144" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D144" s="4" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>SpaceToDepth</t>
+          <t>StringSplit</t>
         </is>
       </c>
       <c r="B145" s="1" t="inlineStr">
@@ -3793,19 +3794,19 @@
       </c>
       <c r="C145" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>SplitToSequence</t>
+          <t>Sub</t>
         </is>
       </c>
       <c r="B146" s="1" t="inlineStr">
@@ -3815,19 +3816,19 @@
       </c>
       <c r="C146" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D146" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>StringConcat</t>
+          <t>Sum</t>
         </is>
       </c>
       <c r="B147" s="1" t="inlineStr">
@@ -3837,19 +3838,19 @@
       </c>
       <c r="C147" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D147" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>StringNormalizer</t>
+          <t>TfIdfVectorizer</t>
         </is>
       </c>
       <c r="B148" s="1" t="inlineStr">
@@ -3862,7 +3863,7 @@
           <t>CPUExecutionProvider</t>
         </is>
       </c>
-      <c r="D148" s="3" t="inlineStr">
+      <c r="D148" s="2" t="inlineStr">
         <is>
           <t>SUCCESS WITH FALLBACK</t>
         </is>
@@ -3871,7 +3872,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>StringSplit</t>
+          <t>Tile</t>
         </is>
       </c>
       <c r="B149" s="1" t="inlineStr">
@@ -3881,12 +3882,12 @@
       </c>
       <c r="C149" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D149" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3916,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Trilu</t>
+          <t>Transpose</t>
         </is>
       </c>
       <c r="B151" s="1" t="inlineStr">
@@ -3925,19 +3926,19 @@
       </c>
       <c r="C151" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS</t>
+          <t>SUCCESS WITH FALLBACK</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Unique</t>
+          <t>Trilu</t>
         </is>
       </c>
       <c r="B152" s="1" t="inlineStr">
@@ -3947,34 +3948,2433 @@
       </c>
       <c r="C152" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D152" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
+          <t>Unique</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C153" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>Unsqueeze</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C154" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
           <t>Where</t>
         </is>
       </c>
-      <c r="B153" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C153" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="B155" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C155" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>Xor</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C156" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Attention</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C157" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.AttnLSTM</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C158" s="1" t="inlineStr"/>
+      <c r="D158" s="4" t="inlineStr">
+        <is>
+          <t>FAIL (skipped: known crash)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BeamSearch</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C159" s="1" t="inlineStr"/>
+      <c r="D159" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 1 : FAIL : Non-zero status code returned while running BeamSearch node. Name:'' Status Message: CUDA failure 1: invalid argument ; GPU=0 ; hostname=COCO-PC ; file=C:\Users\COCO\onnxruntime_tensorrt\onnxruntime\contrib_ops\cuda\transformers\generation_device_helper.cc ; line=389 ; expr=cudaMemcpyAsync(target.data(), source.data(), sizeof(T) * vocab_size, cudaMemcpyDeviceToDevice, cuda_stream); </t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasAdd</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C160" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasDropout</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C161" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasGelu</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C162" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasSoftmax</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C163" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BiasSplitGelu</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BifurcationDetector</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C165" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BitmaskBiasDropout</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C166" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.BitmaskDropout</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C167" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.CDist</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C168" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ComplexMul</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C169" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ComplexMulConj</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C170" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ConvTransposeWithDynamicPads</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C171" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.CropAndResize</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C172" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.CropAndResize</t>
+        </is>
+      </c>
+      <c r="B173" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C173" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DecoderAttention</t>
+        </is>
+      </c>
+      <c r="B174" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C174" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DecoderMaskedMultiHeadAttention</t>
+        </is>
+      </c>
+      <c r="B175" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C175" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DecoderMaskedSelfAttention</t>
+        </is>
+      </c>
+      <c r="B176" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C176" s="1" t="inlineStr"/>
+      <c r="D176" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", com.microsoft.DecoderMaskedSelfAttention, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for com.microsoft.DecoderMaskedSelfAttention with domain_version of 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DequantizeBFP</t>
+        </is>
+      </c>
+      <c r="B177" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C177" s="1" t="inlineStr"/>
+      <c r="D177" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeBFP(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DequantizeLinear</t>
+        </is>
+      </c>
+      <c r="B178" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C178" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DequantizeWithOrder</t>
+        </is>
+      </c>
+      <c r="B179" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C179" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DynamicQuantizeLSTM</t>
+        </is>
+      </c>
+      <c r="B180" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C180" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DynamicQuantizeMatMul</t>
+        </is>
+      </c>
+      <c r="B181" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C181" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.DynamicTimeWarping</t>
+        </is>
+      </c>
+      <c r="B182" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C182" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.EmbedLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B183" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C183" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ExpandDims</t>
+        </is>
+      </c>
+      <c r="B184" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C184" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FastGelu</t>
+        </is>
+      </c>
+      <c r="B185" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C185" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedConv</t>
+        </is>
+      </c>
+      <c r="B186" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C186" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedGemm</t>
+        </is>
+      </c>
+      <c r="B187" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C187" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedMatMul</t>
+        </is>
+      </c>
+      <c r="B188" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C188" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.FusedMatMulActivation</t>
+        </is>
+      </c>
+      <c r="B189" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C189" s="1" t="inlineStr"/>
+      <c r="D189" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GatedRelativePositionBias</t>
+        </is>
+      </c>
+      <c r="B190" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C190" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GatherBlockQuantized</t>
+        </is>
+      </c>
+      <c r="B191" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C191" s="1" t="inlineStr"/>
+      <c r="D191" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GatherND</t>
+        </is>
+      </c>
+      <c r="B192" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C192" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Gelu</t>
+        </is>
+      </c>
+      <c r="B193" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C193" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GemmFastGelu</t>
+        </is>
+      </c>
+      <c r="B194" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C194" s="1" t="inlineStr"/>
+      <c r="D194" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFastGelu(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GemmFloat8</t>
+        </is>
+      </c>
+      <c r="B195" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C195" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GemmaRotaryEmbedding</t>
+        </is>
+      </c>
+      <c r="B196" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C196" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GreedySearch</t>
+        </is>
+      </c>
+      <c r="B197" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C197" s="1" t="inlineStr"/>
+      <c r="D197" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GridSample</t>
+        </is>
+      </c>
+      <c r="B198" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C198" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GroupNorm</t>
+        </is>
+      </c>
+      <c r="B199" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C199" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.GroupQueryAttention</t>
+        </is>
+      </c>
+      <c r="B200" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C200" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Inverse</t>
+        </is>
+      </c>
+      <c r="B201" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C201" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Irfft</t>
+        </is>
+      </c>
+      <c r="B202" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C202" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.LongformerAttention</t>
+        </is>
+      </c>
+      <c r="B203" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C203" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulBnb4</t>
+        </is>
+      </c>
+      <c r="B204" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C204" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulFpQ4</t>
+        </is>
+      </c>
+      <c r="B205" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C205" s="1" t="inlineStr"/>
+      <c r="D205" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running MatMulFpQ4 node. Name:'' Status Message: C:\Users\COCO\onnxruntime_tensorrt\onnxruntime\contrib_ops\cpu\matmul_fpq4.cc:55 onnxruntime::contrib::MatMulFpQ4::Compute buf_size &gt; 0 was false. Operator MatMulFpQ4 not yet supported on this hardware platform.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulInteger16</t>
+        </is>
+      </c>
+      <c r="B206" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C206" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulIntegerToFloat</t>
+        </is>
+      </c>
+      <c r="B207" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C207" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MatMulNBits</t>
+        </is>
+      </c>
+      <c r="B208" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C208" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MaxpoolWithMask</t>
+        </is>
+      </c>
+      <c r="B209" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C209" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MoE</t>
+        </is>
+      </c>
+      <c r="B210" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C210" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MulInteger</t>
+        </is>
+      </c>
+      <c r="B211" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C211" s="1" t="inlineStr"/>
+      <c r="D211" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MulInteger(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MultiHeadAttention</t>
+        </is>
+      </c>
+      <c r="B212" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C212" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.MurmurHash3</t>
+        </is>
+      </c>
+      <c r="B213" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C213" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.NGramRepeatBlock</t>
+        </is>
+      </c>
+      <c r="B214" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C214" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.NhwcConv</t>
+        </is>
+      </c>
+      <c r="B215" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C215" s="1" t="inlineStr"/>
+      <c r="D215" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for NhwcConv(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.NhwcFusedConv</t>
+        </is>
+      </c>
+      <c r="B216" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C216" s="1" t="inlineStr"/>
+      <c r="D216" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.NhwcMaxPool</t>
+        </is>
+      </c>
+      <c r="B217" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C217" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.PackedAttention</t>
+        </is>
+      </c>
+      <c r="B218" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C218" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.PackedMultiHeadAttention</t>
+        </is>
+      </c>
+      <c r="B219" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C219" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Pad</t>
+        </is>
+      </c>
+      <c r="B220" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C220" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QAttention</t>
+        </is>
+      </c>
+      <c r="B221" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C221" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QGemm</t>
+        </is>
+      </c>
+      <c r="B222" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C222" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearAdd</t>
+        </is>
+      </c>
+      <c r="B223" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C223" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearAveragePool</t>
+        </is>
+      </c>
+      <c r="B224" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C224" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearConcat</t>
+        </is>
+      </c>
+      <c r="B225" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C225" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearConv</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C226" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearGlobalAveragePool</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C227" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearLeakyRelu</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C228" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearMul</t>
+        </is>
+      </c>
+      <c r="B229" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C229" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearReduceMean</t>
+        </is>
+      </c>
+      <c r="B230" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C230" s="1" t="inlineStr"/>
+      <c r="D230" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QLinearReduceMean(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearSigmoid</t>
+        </is>
+      </c>
+      <c r="B231" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C231" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearSoftmax</t>
+        </is>
+      </c>
+      <c r="B232" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C232" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QLinearWhere</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C233" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QMoE</t>
+        </is>
+      </c>
+      <c r="B234" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C234" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedAttention</t>
+        </is>
+      </c>
+      <c r="B235" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C235" s="1" t="inlineStr"/>
+      <c r="D235" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedGelu</t>
+        </is>
+      </c>
+      <c r="B236" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C236" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B237" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C237" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedLongformerAttention</t>
+        </is>
+      </c>
+      <c r="B238" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C238" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QOrderedMatMul</t>
+        </is>
+      </c>
+      <c r="B239" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C239" s="1" t="inlineStr"/>
+      <c r="D239" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuantizeBFP</t>
+        </is>
+      </c>
+      <c r="B240" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C240" s="1" t="inlineStr"/>
+      <c r="D240" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeBFP(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuantizeLinear</t>
+        </is>
+      </c>
+      <c r="B241" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C241" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuantizeWithOrder</t>
+        </is>
+      </c>
+      <c r="B242" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C242" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.QuickGelu</t>
+        </is>
+      </c>
+      <c r="B243" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C243" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Range</t>
+        </is>
+      </c>
+      <c r="B244" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C244" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.ReduceSumInteger</t>
+        </is>
+      </c>
+      <c r="B245" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C245" s="1" t="inlineStr"/>
+      <c r="D245" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ReduceSumInteger(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RelativePositionBias</t>
+        </is>
+      </c>
+      <c r="B246" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C246" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RemovePadding</t>
+        </is>
+      </c>
+      <c r="B247" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C247" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RestorePadding</t>
+        </is>
+      </c>
+      <c r="B248" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C248" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Rfft</t>
+        </is>
+      </c>
+      <c r="B249" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C249" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.RotaryEmbedding</t>
+        </is>
+      </c>
+      <c r="B250" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C250" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SampleOp</t>
+        </is>
+      </c>
+      <c r="B251" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C251" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Sampling</t>
+        </is>
+      </c>
+      <c r="B252" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C252" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SkipGroupNorm</t>
+        </is>
+      </c>
+      <c r="B253" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C253" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SkipLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B254" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C254" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SkipSimplifiedLayerNormalization</t>
+        </is>
+      </c>
+      <c r="B255" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C255" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Snpe</t>
+        </is>
+      </c>
+      <c r="B256" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C256" s="1" t="inlineStr"/>
+      <c r="D256" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Snpe(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SparseAttention</t>
+        </is>
+      </c>
+      <c r="B257" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C257" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.SparseToDenseMatMul</t>
+        </is>
+      </c>
+      <c r="B258" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C258" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Tokenizer</t>
+        </is>
+      </c>
+      <c r="B259" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C259" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.TorchEmbedding</t>
+        </is>
+      </c>
+      <c r="B260" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C260" s="1" t="inlineStr"/>
+      <c r="D260" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for TorchEmbedding(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.TransposeMatMul</t>
+        </is>
+      </c>
+      <c r="B261" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C261" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Trilu</t>
+        </is>
+      </c>
+      <c r="B262" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C262" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.UnfoldTensor</t>
+        </is>
+      </c>
+      <c r="B263" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C263" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.Unique</t>
+        </is>
+      </c>
+      <c r="B264" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C264" s="1" t="inlineStr"/>
+      <c r="D264" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Unique(1) node with name ''</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.WhisperBeamSearch</t>
+        </is>
+      </c>
+      <c r="B265" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C265" s="1" t="inlineStr"/>
+      <c r="D265" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>com.microsoft.WordConvEmbedding</t>
+        </is>
+      </c>
+      <c r="B266" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="C266" s="1" t="inlineStr"/>
+      <c r="D266" s="4" t="inlineStr">
+        <is>
+          <t>FAIL (skipped: known crash)</t>
         </is>
       </c>
     </row>
@@ -3990,7 +6390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4027,10 +6427,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="C2" t="n">
-        <v>48.7</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="3">
@@ -4053,10 +6453,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>44.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4066,10 +6466,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4082,31 +6482,57 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>NOT TESTED</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>17</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Report generated on</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-06-05 09:43:55</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-06-06 17:58:22</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/Nvidia - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/Nvidia - CUDA/report_CUDAExecutionProvider.xlsx
@@ -615,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4070,7 +4070,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.AttnLSTM</t>
+          <t>com.microsoft.BeamSearch</t>
         </is>
       </c>
       <c r="B158" s="1" t="inlineStr">
@@ -4081,14 +4081,14 @@
       <c r="C158" s="1" t="inlineStr"/>
       <c r="D158" s="4" t="inlineStr">
         <is>
-          <t>FAIL (skipped: known crash)</t>
+          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 1 : FAIL : Non-zero status code returned while running BeamSearch node. Name:'' Status Message: CUDA failure 1: invalid argument ; GPU=0 ; hostname=COCO-PC ; file=D:\a\_work\1\s\onnxruntime\contrib_ops\cuda\transformers\generation_device_helper.cc ; line=389 ; expr=cudaMemcpyAsync(target.data(), source.data(), sizeof(T) * vocab_size, cudaMemcpyDeviceToDevice, cuda_stream); </t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BeamSearch</t>
+          <t>com.microsoft.BiasAdd</t>
         </is>
       </c>
       <c r="B159" s="1" t="inlineStr">
@@ -4096,17 +4096,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C159" s="1" t="inlineStr"/>
-      <c r="D159" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 1 : FAIL : Non-zero status code returned while running BeamSearch node. Name:'' Status Message: CUDA failure 1: invalid argument ; GPU=0 ; hostname=COCO-PC ; file=C:\Users\COCO\onnxruntime_tensorrt\onnxruntime\contrib_ops\cuda\transformers\generation_device_helper.cc ; line=389 ; expr=cudaMemcpyAsync(target.data(), source.data(), sizeof(T) * vocab_size, cudaMemcpyDeviceToDevice, cuda_stream); </t>
+      <c r="C159" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasAdd</t>
+          <t>com.microsoft.BiasDropout</t>
         </is>
       </c>
       <c r="B160" s="1" t="inlineStr">
@@ -4128,7 +4132,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasDropout</t>
+          <t>com.microsoft.BiasGelu</t>
         </is>
       </c>
       <c r="B161" s="1" t="inlineStr">
@@ -4150,7 +4154,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasGelu</t>
+          <t>com.microsoft.BiasSoftmax</t>
         </is>
       </c>
       <c r="B162" s="1" t="inlineStr">
@@ -4172,7 +4176,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasSoftmax</t>
+          <t>com.microsoft.BiasSplitGelu</t>
         </is>
       </c>
       <c r="B163" s="1" t="inlineStr">
@@ -4194,7 +4198,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BiasSplitGelu</t>
+          <t>com.microsoft.BifurcationDetector</t>
         </is>
       </c>
       <c r="B164" s="1" t="inlineStr">
@@ -4204,19 +4208,19 @@
       </c>
       <c r="C164" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BifurcationDetector</t>
+          <t>com.microsoft.BitmaskBiasDropout</t>
         </is>
       </c>
       <c r="B165" s="1" t="inlineStr">
@@ -4226,19 +4230,19 @@
       </c>
       <c r="C165" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BitmaskBiasDropout</t>
+          <t>com.microsoft.BitmaskDropout</t>
         </is>
       </c>
       <c r="B166" s="1" t="inlineStr">
@@ -4260,7 +4264,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.BitmaskDropout</t>
+          <t>com.microsoft.CDist</t>
         </is>
       </c>
       <c r="B167" s="1" t="inlineStr">
@@ -4270,19 +4274,19 @@
       </c>
       <c r="C167" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.CDist</t>
+          <t>com.microsoft.ComplexMul</t>
         </is>
       </c>
       <c r="B168" s="1" t="inlineStr">
@@ -4292,19 +4296,19 @@
       </c>
       <c r="C168" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ComplexMul</t>
+          <t>com.microsoft.ComplexMulConj</t>
         </is>
       </c>
       <c r="B169" s="1" t="inlineStr">
@@ -4326,7 +4330,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ComplexMulConj</t>
+          <t>com.microsoft.ConvTransposeWithDynamicPads</t>
         </is>
       </c>
       <c r="B170" s="1" t="inlineStr">
@@ -4348,7 +4352,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ConvTransposeWithDynamicPads</t>
+          <t>com.microsoft.CropAndResize</t>
         </is>
       </c>
       <c r="B171" s="1" t="inlineStr">
@@ -4358,19 +4362,19 @@
       </c>
       <c r="C171" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.CropAndResize</t>
+          <t>com.microsoft.DecoderAttention</t>
         </is>
       </c>
       <c r="B172" s="1" t="inlineStr">
@@ -4380,19 +4384,19 @@
       </c>
       <c r="C172" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.CropAndResize</t>
+          <t>com.microsoft.DecoderMaskedMultiHeadAttention</t>
         </is>
       </c>
       <c r="B173" s="1" t="inlineStr">
@@ -4402,19 +4406,19 @@
       </c>
       <c r="C173" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DecoderAttention</t>
+          <t>com.microsoft.DecoderMaskedSelfAttention</t>
         </is>
       </c>
       <c r="B174" s="1" t="inlineStr">
@@ -4422,21 +4426,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C174" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D174" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C174" s="1" t="inlineStr"/>
+      <c r="D174" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", com.microsoft.DecoderMaskedSelfAttention, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for com.microsoft.DecoderMaskedSelfAttention with domain_version of 22</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DecoderMaskedMultiHeadAttention</t>
+          <t>com.microsoft.DequantizeBFP</t>
         </is>
       </c>
       <c r="B175" s="1" t="inlineStr">
@@ -4444,21 +4444,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C175" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C175" s="1" t="inlineStr"/>
+      <c r="D175" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeBFP(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DecoderMaskedSelfAttention</t>
+          <t>com.microsoft.DequantizeLinear</t>
         </is>
       </c>
       <c r="B176" s="1" t="inlineStr">
@@ -4466,17 +4462,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C176" s="1" t="inlineStr"/>
-      <c r="D176" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", com.microsoft.DecoderMaskedSelfAttention, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for com.microsoft.DecoderMaskedSelfAttention with domain_version of 22</t>
+      <c r="C176" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DequantizeBFP</t>
+          <t>com.microsoft.DequantizeWithOrder</t>
         </is>
       </c>
       <c r="B177" s="1" t="inlineStr">
@@ -4484,17 +4484,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C177" s="1" t="inlineStr"/>
-      <c r="D177" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeBFP(1) node with name ''</t>
+      <c r="C177" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DequantizeLinear</t>
+          <t>com.microsoft.DynamicQuantizeLSTM</t>
         </is>
       </c>
       <c r="B178" s="1" t="inlineStr">
@@ -4516,7 +4520,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DequantizeWithOrder</t>
+          <t>com.microsoft.DynamicQuantizeMatMul</t>
         </is>
       </c>
       <c r="B179" s="1" t="inlineStr">
@@ -4526,19 +4530,19 @@
       </c>
       <c r="C179" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DynamicQuantizeLSTM</t>
+          <t>com.microsoft.DynamicTimeWarping</t>
         </is>
       </c>
       <c r="B180" s="1" t="inlineStr">
@@ -4548,19 +4552,19 @@
       </c>
       <c r="C180" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DynamicQuantizeMatMul</t>
+          <t>com.microsoft.EmbedLayerNormalization</t>
         </is>
       </c>
       <c r="B181" s="1" t="inlineStr">
@@ -4570,19 +4574,19 @@
       </c>
       <c r="C181" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.DynamicTimeWarping</t>
+          <t>com.microsoft.ExpandDims</t>
         </is>
       </c>
       <c r="B182" s="1" t="inlineStr">
@@ -4592,19 +4596,19 @@
       </c>
       <c r="C182" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.EmbedLayerNormalization</t>
+          <t>com.microsoft.FastGelu</t>
         </is>
       </c>
       <c r="B183" s="1" t="inlineStr">
@@ -4626,7 +4630,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ExpandDims</t>
+          <t>com.microsoft.FusedConv</t>
         </is>
       </c>
       <c r="B184" s="1" t="inlineStr">
@@ -4636,19 +4640,19 @@
       </c>
       <c r="C184" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FastGelu</t>
+          <t>com.microsoft.FusedGemm</t>
         </is>
       </c>
       <c r="B185" s="1" t="inlineStr">
@@ -4658,19 +4662,19 @@
       </c>
       <c r="C185" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedConv</t>
+          <t>com.microsoft.FusedMatMul</t>
         </is>
       </c>
       <c r="B186" s="1" t="inlineStr">
@@ -4692,7 +4696,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedGemm</t>
+          <t>com.microsoft.FusedMatMulActivation</t>
         </is>
       </c>
       <c r="B187" s="1" t="inlineStr">
@@ -4700,21 +4704,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C187" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D187" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C187" s="1" t="inlineStr"/>
+      <c r="D187" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedMatMul</t>
+          <t>com.microsoft.GatedRelativePositionBias</t>
         </is>
       </c>
       <c r="B188" s="1" t="inlineStr">
@@ -4736,7 +4736,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.FusedMatMulActivation</t>
+          <t>com.microsoft.GatherBlockQuantized</t>
         </is>
       </c>
       <c r="B189" s="1" t="inlineStr">
@@ -4754,7 +4754,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GatedRelativePositionBias</t>
+          <t>com.microsoft.GatherND</t>
         </is>
       </c>
       <c r="B190" s="1" t="inlineStr">
@@ -4764,19 +4764,19 @@
       </c>
       <c r="C190" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GatherBlockQuantized</t>
+          <t>com.microsoft.Gelu</t>
         </is>
       </c>
       <c r="B191" s="1" t="inlineStr">
@@ -4784,17 +4784,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C191" s="1" t="inlineStr"/>
-      <c r="D191" s="5" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="C191" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GatherND</t>
+          <t>com.microsoft.GemmFastGelu</t>
         </is>
       </c>
       <c r="B192" s="1" t="inlineStr">
@@ -4802,21 +4806,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C192" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D192" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C192" s="1" t="inlineStr"/>
+      <c r="D192" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFastGelu(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Gelu</t>
+          <t>com.microsoft.GemmFloat8</t>
         </is>
       </c>
       <c r="B193" s="1" t="inlineStr">
@@ -4838,7 +4838,7 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GemmFastGelu</t>
+          <t>com.microsoft.GemmaRotaryEmbedding</t>
         </is>
       </c>
       <c r="B194" s="1" t="inlineStr">
@@ -4846,17 +4846,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C194" s="1" t="inlineStr"/>
-      <c r="D194" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFastGelu(1) node with name ''</t>
+      <c r="C194" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GemmFloat8</t>
+          <t>com.microsoft.GreedySearch</t>
         </is>
       </c>
       <c r="B195" s="1" t="inlineStr">
@@ -4864,21 +4868,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C195" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D195" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C195" s="1" t="inlineStr"/>
+      <c r="D195" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GemmaRotaryEmbedding</t>
+          <t>com.microsoft.GridSample</t>
         </is>
       </c>
       <c r="B196" s="1" t="inlineStr">
@@ -4900,7 +4900,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GreedySearch</t>
+          <t>com.microsoft.GroupNorm</t>
         </is>
       </c>
       <c r="B197" s="1" t="inlineStr">
@@ -4908,17 +4908,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C197" s="1" t="inlineStr"/>
-      <c r="D197" s="5" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="C197" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GridSample</t>
+          <t>com.microsoft.GroupQueryAttention</t>
         </is>
       </c>
       <c r="B198" s="1" t="inlineStr">
@@ -4928,19 +4932,19 @@
       </c>
       <c r="C198" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GroupNorm</t>
+          <t>com.microsoft.Inverse</t>
         </is>
       </c>
       <c r="B199" s="1" t="inlineStr">
@@ -4962,7 +4966,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.GroupQueryAttention</t>
+          <t>com.microsoft.Irfft</t>
         </is>
       </c>
       <c r="B200" s="1" t="inlineStr">
@@ -4972,19 +4976,19 @@
       </c>
       <c r="C200" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Inverse</t>
+          <t>com.microsoft.LongformerAttention</t>
         </is>
       </c>
       <c r="B201" s="1" t="inlineStr">
@@ -5006,7 +5010,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Irfft</t>
+          <t>com.microsoft.MatMulBnb4</t>
         </is>
       </c>
       <c r="B202" s="1" t="inlineStr">
@@ -5028,7 +5032,7 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.LongformerAttention</t>
+          <t>com.microsoft.MatMulFpQ4</t>
         </is>
       </c>
       <c r="B203" s="1" t="inlineStr">
@@ -5036,21 +5040,18 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C203" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D203" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C203" s="1" t="inlineStr"/>
+      <c r="D203" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running MatMulFpQ4 node. Name:'' Status Message: D:\a\_work\1\s\onnxruntime\contrib_ops\cpu\matmul_fpq4.cc:55 onnxruntime::contrib::MatMulFpQ4::Compute buf_size &gt; 0 was false. Operator MatMulFpQ4 not yet supported on this hardware platform.
+</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MatMulBnb4</t>
+          <t>com.microsoft.MatMulInteger16</t>
         </is>
       </c>
       <c r="B204" s="1" t="inlineStr">
@@ -5060,19 +5061,19 @@
       </c>
       <c r="C204" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MatMulFpQ4</t>
+          <t>com.microsoft.MatMulIntegerToFloat</t>
         </is>
       </c>
       <c r="B205" s="1" t="inlineStr">
@@ -5080,18 +5081,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C205" s="1" t="inlineStr"/>
-      <c r="D205" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running MatMulFpQ4 node. Name:'' Status Message: C:\Users\COCO\onnxruntime_tensorrt\onnxruntime\contrib_ops\cpu\matmul_fpq4.cc:55 onnxruntime::contrib::MatMulFpQ4::Compute buf_size &gt; 0 was false. Operator MatMulFpQ4 not yet supported on this hardware platform.
-</t>
+      <c r="C205" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MatMulInteger16</t>
+          <t>com.microsoft.MatMulNBits</t>
         </is>
       </c>
       <c r="B206" s="1" t="inlineStr">
@@ -5101,19 +5105,19 @@
       </c>
       <c r="C206" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MatMulIntegerToFloat</t>
+          <t>com.microsoft.MaxpoolWithMask</t>
         </is>
       </c>
       <c r="B207" s="1" t="inlineStr">
@@ -5135,7 +5139,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MatMulNBits</t>
+          <t>com.microsoft.MoE</t>
         </is>
       </c>
       <c r="B208" s="1" t="inlineStr">
@@ -5157,7 +5161,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MaxpoolWithMask</t>
+          <t>com.microsoft.MulInteger</t>
         </is>
       </c>
       <c r="B209" s="1" t="inlineStr">
@@ -5165,21 +5169,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C209" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D209" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C209" s="1" t="inlineStr"/>
+      <c r="D209" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MulInteger(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MoE</t>
+          <t>com.microsoft.MultiHeadAttention</t>
         </is>
       </c>
       <c r="B210" s="1" t="inlineStr">
@@ -5201,7 +5201,7 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MulInteger</t>
+          <t>com.microsoft.MurmurHash3</t>
         </is>
       </c>
       <c r="B211" s="1" t="inlineStr">
@@ -5209,17 +5209,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C211" s="1" t="inlineStr"/>
-      <c r="D211" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MulInteger(1) node with name ''</t>
+      <c r="C211" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MultiHeadAttention</t>
+          <t>com.microsoft.NGramRepeatBlock</t>
         </is>
       </c>
       <c r="B212" s="1" t="inlineStr">
@@ -5241,7 +5245,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.MurmurHash3</t>
+          <t>com.microsoft.NhwcConv</t>
         </is>
       </c>
       <c r="B213" s="1" t="inlineStr">
@@ -5249,21 +5253,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C213" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C213" s="1" t="inlineStr"/>
+      <c r="D213" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for NhwcConv(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.NGramRepeatBlock</t>
+          <t>com.microsoft.NhwcFusedConv</t>
         </is>
       </c>
       <c r="B214" s="1" t="inlineStr">
@@ -5271,21 +5271,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C214" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D214" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C214" s="1" t="inlineStr"/>
+      <c r="D214" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.NhwcConv</t>
+          <t>com.microsoft.NhwcMaxPool</t>
         </is>
       </c>
       <c r="B215" s="1" t="inlineStr">
@@ -5293,17 +5289,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C215" s="1" t="inlineStr"/>
-      <c r="D215" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for NhwcConv(1) node with name ''</t>
+      <c r="C215" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.NhwcFusedConv</t>
+          <t>com.microsoft.PackedAttention</t>
         </is>
       </c>
       <c r="B216" s="1" t="inlineStr">
@@ -5311,17 +5311,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C216" s="1" t="inlineStr"/>
-      <c r="D216" s="5" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="C216" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.NhwcMaxPool</t>
+          <t>com.microsoft.PackedMultiHeadAttention</t>
         </is>
       </c>
       <c r="B217" s="1" t="inlineStr">
@@ -5331,19 +5335,19 @@
       </c>
       <c r="C217" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.PackedAttention</t>
+          <t>com.microsoft.Pad</t>
         </is>
       </c>
       <c r="B218" s="1" t="inlineStr">
@@ -5353,19 +5357,19 @@
       </c>
       <c r="C218" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.PackedMultiHeadAttention</t>
+          <t>com.microsoft.QAttention</t>
         </is>
       </c>
       <c r="B219" s="1" t="inlineStr">
@@ -5375,19 +5379,19 @@
       </c>
       <c r="C219" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Pad</t>
+          <t>com.microsoft.QGemm</t>
         </is>
       </c>
       <c r="B220" s="1" t="inlineStr">
@@ -5409,7 +5413,7 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QAttention</t>
+          <t>com.microsoft.QLinearAdd</t>
         </is>
       </c>
       <c r="B221" s="1" t="inlineStr">
@@ -5431,7 +5435,7 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QGemm</t>
+          <t>com.microsoft.QLinearAveragePool</t>
         </is>
       </c>
       <c r="B222" s="1" t="inlineStr">
@@ -5453,7 +5457,7 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearAdd</t>
+          <t>com.microsoft.QLinearConcat</t>
         </is>
       </c>
       <c r="B223" s="1" t="inlineStr">
@@ -5475,7 +5479,7 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearAveragePool</t>
+          <t>com.microsoft.QLinearConv</t>
         </is>
       </c>
       <c r="B224" s="1" t="inlineStr">
@@ -5497,7 +5501,7 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearConcat</t>
+          <t>com.microsoft.QLinearGlobalAveragePool</t>
         </is>
       </c>
       <c r="B225" s="1" t="inlineStr">
@@ -5519,7 +5523,7 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearConv</t>
+          <t>com.microsoft.QLinearLeakyRelu</t>
         </is>
       </c>
       <c r="B226" s="1" t="inlineStr">
@@ -5541,7 +5545,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearGlobalAveragePool</t>
+          <t>com.microsoft.QLinearMul</t>
         </is>
       </c>
       <c r="B227" s="1" t="inlineStr">
@@ -5563,7 +5567,7 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearLeakyRelu</t>
+          <t>com.microsoft.QLinearReduceMean</t>
         </is>
       </c>
       <c r="B228" s="1" t="inlineStr">
@@ -5571,21 +5575,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C228" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D228" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C228" s="1" t="inlineStr"/>
+      <c r="D228" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QLinearReduceMean(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearMul</t>
+          <t>com.microsoft.QLinearSigmoid</t>
         </is>
       </c>
       <c r="B229" s="1" t="inlineStr">
@@ -5607,7 +5607,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearReduceMean</t>
+          <t>com.microsoft.QLinearSoftmax</t>
         </is>
       </c>
       <c r="B230" s="1" t="inlineStr">
@@ -5615,17 +5615,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C230" s="1" t="inlineStr"/>
-      <c r="D230" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QLinearReduceMean(1) node with name ''</t>
+      <c r="C230" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearSigmoid</t>
+          <t>com.microsoft.QLinearWhere</t>
         </is>
       </c>
       <c r="B231" s="1" t="inlineStr">
@@ -5647,7 +5651,7 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearSoftmax</t>
+          <t>com.microsoft.QMoE</t>
         </is>
       </c>
       <c r="B232" s="1" t="inlineStr">
@@ -5657,19 +5661,19 @@
       </c>
       <c r="C232" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D232" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QLinearWhere</t>
+          <t>com.microsoft.QOrderedAttention</t>
         </is>
       </c>
       <c r="B233" s="1" t="inlineStr">
@@ -5677,21 +5681,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C233" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D233" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C233" s="1" t="inlineStr"/>
+      <c r="D233" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QMoE</t>
+          <t>com.microsoft.QOrderedGelu</t>
         </is>
       </c>
       <c r="B234" s="1" t="inlineStr">
@@ -5713,7 +5713,7 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedAttention</t>
+          <t>com.microsoft.QOrderedLayerNormalization</t>
         </is>
       </c>
       <c r="B235" s="1" t="inlineStr">
@@ -5721,17 +5721,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C235" s="1" t="inlineStr"/>
-      <c r="D235" s="5" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="C235" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedGelu</t>
+          <t>com.microsoft.QOrderedLongformerAttention</t>
         </is>
       </c>
       <c r="B236" s="1" t="inlineStr">
@@ -5753,7 +5757,7 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedLayerNormalization</t>
+          <t>com.microsoft.QOrderedMatMul</t>
         </is>
       </c>
       <c r="B237" s="1" t="inlineStr">
@@ -5761,21 +5765,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C237" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C237" s="1" t="inlineStr"/>
+      <c r="D237" s="5" t="inlineStr">
+        <is>
+          <t>NOT TESTED (model unavailable)</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedLongformerAttention</t>
+          <t>com.microsoft.QuantizeBFP</t>
         </is>
       </c>
       <c r="B238" s="1" t="inlineStr">
@@ -5783,21 +5783,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C238" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C238" s="1" t="inlineStr"/>
+      <c r="D238" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeBFP(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QOrderedMatMul</t>
+          <t>com.microsoft.QuantizeLinear</t>
         </is>
       </c>
       <c r="B239" s="1" t="inlineStr">
@@ -5805,17 +5801,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C239" s="1" t="inlineStr"/>
-      <c r="D239" s="5" t="inlineStr">
-        <is>
-          <t>NOT TESTED (model unavailable)</t>
+      <c r="C239" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QuantizeBFP</t>
+          <t>com.microsoft.QuantizeWithOrder</t>
         </is>
       </c>
       <c r="B240" s="1" t="inlineStr">
@@ -5823,17 +5823,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C240" s="1" t="inlineStr"/>
-      <c r="D240" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeBFP(1) node with name ''</t>
+      <c r="C240" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QuantizeLinear</t>
+          <t>com.microsoft.QuickGelu</t>
         </is>
       </c>
       <c r="B241" s="1" t="inlineStr">
@@ -5843,19 +5847,19 @@
       </c>
       <c r="C241" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D241" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QuantizeWithOrder</t>
+          <t>com.microsoft.Range</t>
         </is>
       </c>
       <c r="B242" s="1" t="inlineStr">
@@ -5865,19 +5869,19 @@
       </c>
       <c r="C242" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D242" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.QuickGelu</t>
+          <t>com.microsoft.ReduceSumInteger</t>
         </is>
       </c>
       <c r="B243" s="1" t="inlineStr">
@@ -5885,21 +5889,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C243" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D243" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C243" s="1" t="inlineStr"/>
+      <c r="D243" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ReduceSumInteger(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Range</t>
+          <t>com.microsoft.RelativePositionBias</t>
         </is>
       </c>
       <c r="B244" s="1" t="inlineStr">
@@ -5909,19 +5909,19 @@
       </c>
       <c r="C244" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D244" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.ReduceSumInteger</t>
+          <t>com.microsoft.RemovePadding</t>
         </is>
       </c>
       <c r="B245" s="1" t="inlineStr">
@@ -5929,17 +5929,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C245" s="1" t="inlineStr"/>
-      <c r="D245" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ReduceSumInteger(1) node with name ''</t>
+      <c r="C245" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RelativePositionBias</t>
+          <t>com.microsoft.RestorePadding</t>
         </is>
       </c>
       <c r="B246" s="1" t="inlineStr">
@@ -5961,7 +5965,7 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RemovePadding</t>
+          <t>com.microsoft.Rfft</t>
         </is>
       </c>
       <c r="B247" s="1" t="inlineStr">
@@ -5983,7 +5987,7 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RestorePadding</t>
+          <t>com.microsoft.RotaryEmbedding</t>
         </is>
       </c>
       <c r="B248" s="1" t="inlineStr">
@@ -6005,7 +6009,7 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Rfft</t>
+          <t>com.microsoft.SampleOp</t>
         </is>
       </c>
       <c r="B249" s="1" t="inlineStr">
@@ -6015,19 +6019,19 @@
       </c>
       <c r="C249" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D249" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.RotaryEmbedding</t>
+          <t>com.microsoft.Sampling</t>
         </is>
       </c>
       <c r="B250" s="1" t="inlineStr">
@@ -6049,7 +6053,7 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SampleOp</t>
+          <t>com.microsoft.SkipGroupNorm</t>
         </is>
       </c>
       <c r="B251" s="1" t="inlineStr">
@@ -6059,19 +6063,19 @@
       </c>
       <c r="C251" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D251" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Sampling</t>
+          <t>com.microsoft.SkipLayerNormalization</t>
         </is>
       </c>
       <c r="B252" s="1" t="inlineStr">
@@ -6093,7 +6097,7 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SkipGroupNorm</t>
+          <t>com.microsoft.SkipSimplifiedLayerNormalization</t>
         </is>
       </c>
       <c r="B253" s="1" t="inlineStr">
@@ -6115,7 +6119,7 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SkipLayerNormalization</t>
+          <t>com.microsoft.Snpe</t>
         </is>
       </c>
       <c r="B254" s="1" t="inlineStr">
@@ -6123,21 +6127,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C254" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D254" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C254" s="1" t="inlineStr"/>
+      <c r="D254" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Snpe(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SkipSimplifiedLayerNormalization</t>
+          <t>com.microsoft.SparseAttention</t>
         </is>
       </c>
       <c r="B255" s="1" t="inlineStr">
@@ -6147,19 +6147,19 @@
       </c>
       <c r="C255" s="1" t="inlineStr">
         <is>
-          <t>CUDAExecutionProvider</t>
+          <t>CPUExecutionProvider</t>
         </is>
       </c>
       <c r="D255" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS (via decomposition)</t>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Snpe</t>
+          <t>com.microsoft.SparseToDenseMatMul</t>
         </is>
       </c>
       <c r="B256" s="1" t="inlineStr">
@@ -6167,17 +6167,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C256" s="1" t="inlineStr"/>
-      <c r="D256" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Snpe(1) node with name ''</t>
+      <c r="C256" s="1" t="inlineStr">
+        <is>
+          <t>CPUExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SparseAttention</t>
+          <t>com.microsoft.Tokenizer</t>
         </is>
       </c>
       <c r="B257" s="1" t="inlineStr">
@@ -6199,7 +6203,7 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.SparseToDenseMatMul</t>
+          <t>com.microsoft.TorchEmbedding</t>
         </is>
       </c>
       <c r="B258" s="1" t="inlineStr">
@@ -6207,21 +6211,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C258" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D258" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C258" s="1" t="inlineStr"/>
+      <c r="D258" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for TorchEmbedding(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Tokenizer</t>
+          <t>com.microsoft.TransposeMatMul</t>
         </is>
       </c>
       <c r="B259" s="1" t="inlineStr">
@@ -6231,19 +6231,19 @@
       </c>
       <c r="C259" s="1" t="inlineStr">
         <is>
-          <t>CPUExecutionProvider</t>
+          <t>CUDAExecutionProvider</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.TorchEmbedding</t>
+          <t>com.microsoft.Trilu</t>
         </is>
       </c>
       <c r="B260" s="1" t="inlineStr">
@@ -6251,17 +6251,21 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C260" s="1" t="inlineStr"/>
-      <c r="D260" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for TorchEmbedding(1) node with name ''</t>
+      <c r="C260" s="1" t="inlineStr">
+        <is>
+          <t>CUDAExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.TransposeMatMul</t>
+          <t>com.microsoft.UnfoldTensor</t>
         </is>
       </c>
       <c r="B261" s="1" t="inlineStr">
@@ -6283,7 +6287,7 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.Trilu</t>
+          <t>com.microsoft.Unique</t>
         </is>
       </c>
       <c r="B262" s="1" t="inlineStr">
@@ -6291,21 +6295,17 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C262" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D262" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
+      <c r="C262" s="1" t="inlineStr"/>
+      <c r="D262" s="4" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Unique(1) node with name ''</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>com.microsoft.UnfoldTensor</t>
+          <t>com.microsoft.WhisperBeamSearch</t>
         </is>
       </c>
       <c r="B263" s="1" t="inlineStr">
@@ -6313,68 +6313,10 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C263" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D263" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS (via decomposition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.Unique</t>
-        </is>
-      </c>
-      <c r="B264" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C264" s="1" t="inlineStr"/>
-      <c r="D264" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Unique(1) node with name ''</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.WhisperBeamSearch</t>
-        </is>
-      </c>
-      <c r="B265" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C265" s="1" t="inlineStr"/>
-      <c r="D265" s="5" t="inlineStr">
+      <c r="C263" s="1" t="inlineStr"/>
+      <c r="D263" s="5" t="inlineStr">
         <is>
           <t>NOT TESTED (model unavailable)</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="inlineStr">
-        <is>
-          <t>com.microsoft.WordConvEmbedding</t>
-        </is>
-      </c>
-      <c r="B266" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="C266" s="1" t="inlineStr"/>
-      <c r="D266" s="4" t="inlineStr">
-        <is>
-          <t>FAIL (skipped: known crash)</t>
         </is>
       </c>
     </row>
@@ -6427,10 +6369,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="3">
@@ -6495,7 +6437,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8">
@@ -6518,10 +6460,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="10">
@@ -6532,7 +6474,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-06 17:58:22</t>
+          <t>2025-07-11 09:26:23</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/Nvidia - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/Nvidia - CUDA/report_CUDAExecutionProvider.xlsx
@@ -41,12 +41,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DEDEDE"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="00DEDEDE"/>
       </patternFill>
     </fill>
     <fill>
@@ -816,14 +816,10 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider,CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK (via decomposition)</t>
+      <c r="C9" s="1" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomUniformLike(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1143,7 @@
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>UNKNOWN (no Node event)</t>
         </is>
@@ -1297,9 +1293,9 @@
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr"/>
-      <c r="D31" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DeformConv(19) node with name ''</t>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DeformConv(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1971,7 @@
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr"/>
-      <c r="D62" s="4" t="inlineStr">
+      <c r="D62" s="3" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ImageDecoder(20) node with name ''</t>
         </is>
@@ -2190,14 +2186,10 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C72" s="1" t="inlineStr"/>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for LpNormalization(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2322,14 +2314,10 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C78" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C78" s="1" t="inlineStr"/>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MaxRoiPool(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2498,14 +2486,10 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C86" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C86" s="1" t="inlineStr"/>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Multinomial(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2894,14 +2878,10 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C104" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C104" s="1" t="inlineStr"/>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomNormal(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2896,10 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C105" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C105" s="1" t="inlineStr"/>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomNormalLike(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2938,14 +2914,10 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C106" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C106" s="1" t="inlineStr"/>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomUniform(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -2960,14 +2932,10 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C107" s="1" t="inlineStr">
-        <is>
-          <t>CUDAExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
+      <c r="C107" s="1" t="inlineStr"/>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RandomUniformLike(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -3312,14 +3280,10 @@
           <t>CUDAExecutionProvider</t>
         </is>
       </c>
-      <c r="C123" s="1" t="inlineStr">
-        <is>
-          <t>CPUExecutionProvider</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="C123" s="1" t="inlineStr"/>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for RoiAlign(22) node with name ''</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3541,7 @@
         </is>
       </c>
       <c r="C135" s="1" t="inlineStr"/>
-      <c r="D135" s="3" t="inlineStr">
+      <c r="D135" s="4" t="inlineStr">
         <is>
           <t>UNKNOWN (no Node event)</t>
         </is>
@@ -4079,9 +4043,9 @@
         </is>
       </c>
       <c r="C158" s="1" t="inlineStr"/>
-      <c r="D158" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 1 : FAIL : Non-zero status code returned while running BeamSearch node. Name:'' Status Message: CUDA failure 1: invalid argument ; GPU=0 ; hostname=COCO-PC ; file=D:\a\_work\1\s\onnxruntime\contrib_ops\cuda\transformers\generation_device_helper.cc ; line=389 ; expr=cudaMemcpyAsync(target.data(), source.data(), sizeof(T) * vocab_size, cudaMemcpyDeviceToDevice, cuda_stream); </t>
+      <c r="D158" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 1 : FAIL : Non-zero status code returned while running BeamSearch node. Name:'' Status Message: CUDA failure 1: invalid argument ; GPU=0 ; hostname=COCO-PC ; file=C:\Users\COCO\onnxruntime_tensorrt\onnxruntime\contrib_ops\cuda\transformers\generation_device_helper.cc ; line=389 ; expr=cudaMemcpyAsync(target.data(), source.data(), sizeof(T) * vocab_size, cudaMemcpyDeviceToDevice, cuda_stream); </t>
         </is>
       </c>
     </row>
@@ -4427,7 +4391,7 @@
         </is>
       </c>
       <c r="C174" s="1" t="inlineStr"/>
-      <c r="D174" s="4" t="inlineStr">
+      <c r="D174" s="3" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", com.microsoft.DecoderMaskedSelfAttention, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for com.microsoft.DecoderMaskedSelfAttention with domain_version of 22</t>
         </is>
@@ -4445,7 +4409,7 @@
         </is>
       </c>
       <c r="C175" s="1" t="inlineStr"/>
-      <c r="D175" s="4" t="inlineStr">
+      <c r="D175" s="3" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeBFP(1) node with name ''</t>
         </is>
@@ -4807,7 +4771,7 @@
         </is>
       </c>
       <c r="C192" s="1" t="inlineStr"/>
-      <c r="D192" s="4" t="inlineStr">
+      <c r="D192" s="3" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFastGelu(1) node with name ''</t>
         </is>
@@ -5041,9 +5005,9 @@
         </is>
       </c>
       <c r="C203" s="1" t="inlineStr"/>
-      <c r="D203" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running MatMulFpQ4 node. Name:'' Status Message: D:\a\_work\1\s\onnxruntime\contrib_ops\cpu\matmul_fpq4.cc:55 onnxruntime::contrib::MatMulFpQ4::Compute buf_size &gt; 0 was false. Operator MatMulFpQ4 not yet supported on this hardware platform.
+      <c r="D203" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running MatMulFpQ4 node. Name:'' Status Message: C:\Users\COCO\onnxruntime_tensorrt\onnxruntime\contrib_ops\cpu\matmul_fpq4.cc:55 onnxruntime::contrib::MatMulFpQ4::Compute buf_size &gt; 0 was false. Operator MatMulFpQ4 not yet supported on this hardware platform.
 </t>
         </is>
       </c>
@@ -5170,7 +5134,7 @@
         </is>
       </c>
       <c r="C209" s="1" t="inlineStr"/>
-      <c r="D209" s="4" t="inlineStr">
+      <c r="D209" s="3" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MulInteger(1) node with name ''</t>
         </is>
@@ -5254,7 +5218,7 @@
         </is>
       </c>
       <c r="C213" s="1" t="inlineStr"/>
-      <c r="D213" s="4" t="inlineStr">
+      <c r="D213" s="3" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for NhwcConv(1) node with name ''</t>
         </is>
@@ -5576,7 +5540,7 @@
         </is>
       </c>
       <c r="C228" s="1" t="inlineStr"/>
-      <c r="D228" s="4" t="inlineStr">
+      <c r="D228" s="3" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QLinearReduceMean(1) node with name ''</t>
         </is>
@@ -5784,7 +5748,7 @@
         </is>
       </c>
       <c r="C238" s="1" t="inlineStr"/>
-      <c r="D238" s="4" t="inlineStr">
+      <c r="D238" s="3" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeBFP(1) node with name ''</t>
         </is>
@@ -5890,7 +5854,7 @@
         </is>
       </c>
       <c r="C243" s="1" t="inlineStr"/>
-      <c r="D243" s="4" t="inlineStr">
+      <c r="D243" s="3" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ReduceSumInteger(1) node with name ''</t>
         </is>
@@ -6128,7 +6092,7 @@
         </is>
       </c>
       <c r="C254" s="1" t="inlineStr"/>
-      <c r="D254" s="4" t="inlineStr">
+      <c r="D254" s="3" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Snpe(1) node with name ''</t>
         </is>
@@ -6212,7 +6176,7 @@
         </is>
       </c>
       <c r="C258" s="1" t="inlineStr"/>
-      <c r="D258" s="4" t="inlineStr">
+      <c r="D258" s="3" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for TorchEmbedding(1) node with name ''</t>
         </is>
@@ -6296,7 +6260,7 @@
         </is>
       </c>
       <c r="C262" s="1" t="inlineStr"/>
-      <c r="D262" s="4" t="inlineStr">
+      <c r="D262" s="3" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Unique(1) node with name ''</t>
         </is>
@@ -6369,10 +6333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C2" t="n">
-        <v>90.8</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -6460,10 +6424,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>5.7</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6474,7 +6438,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-07-11 09:26:23</t>
+          <t>2025-07-11 11:58:15</t>
         </is>
       </c>
     </row>
